--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7342500000000002</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N2">
-        <v>2.20275</v>
+        <v>1.695534</v>
       </c>
       <c r="O2">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P2">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q2">
-        <v>0.4618731095000002</v>
+        <v>1.049626539658</v>
       </c>
       <c r="R2">
-        <v>4.1568579855</v>
+        <v>9.446638856922002</v>
       </c>
       <c r="S2">
-        <v>0.0008919070079394376</v>
+        <v>0.001654095804870673</v>
       </c>
       <c r="T2">
-        <v>0.0008919070079394376</v>
+        <v>0.001654095804870673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>0.203534</v>
       </c>
       <c r="N3">
-        <v>0.6106020000000001</v>
+        <v>0.610602</v>
       </c>
       <c r="O3">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P3">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q3">
-        <v>0.1280311630493333</v>
+        <v>0.377995406974</v>
       </c>
       <c r="R3">
-        <v>1.152280467444</v>
+        <v>3.401958662766</v>
       </c>
       <c r="S3">
-        <v>0.000247236501128969</v>
+        <v>0.0005956791233001771</v>
       </c>
       <c r="T3">
-        <v>0.000247236501128969</v>
+        <v>0.0005956791233001773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1715383333333333</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N4">
-        <v>0.5146149999999999</v>
+        <v>0.131771</v>
       </c>
       <c r="O4">
-        <v>0.08618138660235011</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P4">
-        <v>0.08618138660235013</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q4">
-        <v>0.1079045875588889</v>
+        <v>0.08157332071033334</v>
       </c>
       <c r="R4">
-        <v>0.9711412880299999</v>
+        <v>0.7341598863930001</v>
       </c>
       <c r="S4">
-        <v>0.0002083707751178088</v>
+        <v>0.0001285505677288768</v>
       </c>
       <c r="T4">
-        <v>0.0002083707751178089</v>
+        <v>0.0001285505677288768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8811113333333335</v>
+        <v>1.385719</v>
       </c>
       <c r="N5">
-        <v>2.643334</v>
+        <v>4.157157</v>
       </c>
       <c r="O5">
-        <v>0.442673045622721</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P5">
-        <v>0.4426730456227211</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q5">
-        <v>0.5542548605275557</v>
+        <v>2.573503283759</v>
       </c>
       <c r="R5">
-        <v>4.988293744748001</v>
+        <v>23.161529553831</v>
       </c>
       <c r="S5">
-        <v>0.001070302176336209</v>
+        <v>0.004055557690903723</v>
       </c>
       <c r="T5">
-        <v>0.001070302176336209</v>
+        <v>0.004055557690903724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.87880433333333</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>248.636413</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7342500000000002</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N6">
-        <v>2.20275</v>
+        <v>0.245345</v>
       </c>
       <c r="O6">
-        <v>0.3688894597676453</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P6">
-        <v>0.3688894597676453</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q6">
-        <v>60.85376208175001</v>
+        <v>0.1518817218483334</v>
       </c>
       <c r="R6">
-        <v>547.6838587357502</v>
+        <v>1.366935496635</v>
       </c>
       <c r="S6">
-        <v>0.1175125716215615</v>
+        <v>0.0002393488630991742</v>
       </c>
       <c r="T6">
-        <v>0.1175125716215615</v>
+        <v>0.0002393488630991743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>248.636413</v>
       </c>
       <c r="I7">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J7">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.203534</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N7">
-        <v>0.6106020000000001</v>
+        <v>1.695534</v>
       </c>
       <c r="O7">
-        <v>0.1022561080072835</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P7">
-        <v>0.1022561080072835</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q7">
-        <v>16.86865456118067</v>
+        <v>46.84127687550468</v>
       </c>
       <c r="R7">
-        <v>151.817891050626</v>
+        <v>421.571491879542</v>
       </c>
       <c r="S7">
-        <v>0.03257446884906079</v>
+        <v>0.07381669255409952</v>
       </c>
       <c r="T7">
-        <v>0.0325744688490608</v>
+        <v>0.07381669255409952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1715383333333333</v>
+        <v>0.203534</v>
       </c>
       <c r="N8">
-        <v>0.5146149999999999</v>
+        <v>0.610602</v>
       </c>
       <c r="O8">
-        <v>0.08618138660235011</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P8">
-        <v>0.08618138660235013</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q8">
-        <v>14.21689196399944</v>
+        <v>16.86865456118067</v>
       </c>
       <c r="R8">
-        <v>127.952027675995</v>
+        <v>151.817891050626</v>
       </c>
       <c r="S8">
-        <v>0.0274537428419157</v>
+        <v>0.02658314142147445</v>
       </c>
       <c r="T8">
-        <v>0.02745374284191571</v>
+        <v>0.02658314142147446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.8811113333333335</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N9">
-        <v>2.643334</v>
+        <v>0.131771</v>
       </c>
       <c r="O9">
-        <v>0.442673045622721</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P9">
-        <v>0.4426730456227211</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q9">
-        <v>73.0254537912158</v>
+        <v>3.640340975269222</v>
       </c>
       <c r="R9">
-        <v>657.229084120942</v>
+        <v>32.763068777423</v>
       </c>
       <c r="S9">
-        <v>0.1410168997819582</v>
+        <v>0.005736776375198756</v>
       </c>
       <c r="T9">
-        <v>0.1410168997819582</v>
+        <v>0.005736776375198756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7342500000000002</v>
+        <v>1.385719</v>
       </c>
       <c r="N10">
-        <v>2.20275</v>
+        <v>4.157157</v>
       </c>
       <c r="O10">
-        <v>0.3688894597676453</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P10">
-        <v>0.3688894597676453</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q10">
-        <v>30.11932366300001</v>
+        <v>114.8467338619823</v>
       </c>
       <c r="R10">
-        <v>271.0739129670001</v>
+        <v>1033.620604757841</v>
       </c>
       <c r="S10">
-        <v>0.05816237251505509</v>
+        <v>0.1809858016224521</v>
       </c>
       <c r="T10">
-        <v>0.05816237251505509</v>
+        <v>0.1809858016224521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.203534</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N11">
-        <v>0.6106020000000001</v>
+        <v>0.245345</v>
       </c>
       <c r="O11">
-        <v>0.1022561080072835</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P11">
-        <v>0.1022561080072835</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q11">
-        <v>8.349072417330667</v>
+        <v>6.777966749720556</v>
       </c>
       <c r="R11">
-        <v>75.14165175597601</v>
+        <v>61.001700747485</v>
       </c>
       <c r="S11">
-        <v>0.01612260173984232</v>
+        <v>0.0106813289705105</v>
       </c>
       <c r="T11">
-        <v>0.01612260173984232</v>
+        <v>0.0106813289705105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H12">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I12">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J12">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1715383333333333</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N12">
-        <v>0.5146149999999999</v>
+        <v>1.695534</v>
       </c>
       <c r="O12">
-        <v>0.08618138660235011</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P12">
-        <v>0.08618138660235013</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q12">
-        <v>7.036593234291111</v>
+        <v>33.77364995640267</v>
       </c>
       <c r="R12">
-        <v>63.32933910861999</v>
+        <v>303.962849607624</v>
       </c>
       <c r="S12">
-        <v>0.01358811909287711</v>
+        <v>0.05322355199427283</v>
       </c>
       <c r="T12">
-        <v>0.01358811909287712</v>
+        <v>0.05322355199427284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H13">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I13">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J13">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.8811113333333335</v>
+        <v>0.203534</v>
       </c>
       <c r="N13">
-        <v>2.643334</v>
+        <v>0.610602</v>
       </c>
       <c r="O13">
-        <v>0.442673045622721</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P13">
-        <v>0.4426730456227211</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q13">
-        <v>36.14365329493245</v>
+        <v>12.16269223187467</v>
       </c>
       <c r="R13">
-        <v>325.292879654392</v>
+        <v>109.464230086872</v>
       </c>
       <c r="S13">
-        <v>0.06979574476890733</v>
+        <v>0.01916706317585314</v>
       </c>
       <c r="T13">
-        <v>0.06979574476890733</v>
+        <v>0.01916706317585314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.7342500000000002</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N14">
-        <v>2.20275</v>
+        <v>0.131771</v>
       </c>
       <c r="O14">
-        <v>0.3688894597676453</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P14">
-        <v>0.3688894597676453</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q14">
-        <v>0.29031926825</v>
+        <v>2.624770502039556</v>
       </c>
       <c r="R14">
-        <v>2.61287341425</v>
+        <v>23.622934518356</v>
       </c>
       <c r="S14">
-        <v>0.0005606253851243627</v>
+        <v>0.004136349179572526</v>
       </c>
       <c r="T14">
-        <v>0.0005606253851243627</v>
+        <v>0.004136349179572527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203534</v>
+        <v>1.385719</v>
       </c>
       <c r="N15">
-        <v>0.6106020000000001</v>
+        <v>4.157157</v>
       </c>
       <c r="O15">
-        <v>0.1022561080072835</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P15">
-        <v>0.1022561080072835</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q15">
-        <v>0.08047646161933333</v>
+        <v>82.80716596176133</v>
       </c>
       <c r="R15">
-        <v>0.7242881545740001</v>
+        <v>745.264493655852</v>
       </c>
       <c r="S15">
-        <v>0.000155405280402999</v>
+        <v>0.1304949719308815</v>
       </c>
       <c r="T15">
-        <v>0.000155405280402999</v>
+        <v>0.1304949719308815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1715383333333333</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N16">
-        <v>0.5146149999999999</v>
+        <v>0.245345</v>
       </c>
       <c r="O16">
-        <v>0.08618138660235011</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P16">
-        <v>0.08618138660235013</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q16">
-        <v>0.06782551366722221</v>
+        <v>4.887071653268889</v>
       </c>
       <c r="R16">
-        <v>0.6104296230049998</v>
+        <v>43.98364487942001</v>
       </c>
       <c r="S16">
-        <v>0.0001309754772742135</v>
+        <v>0.007701486590085994</v>
       </c>
       <c r="T16">
-        <v>0.0001309754772742135</v>
+        <v>0.007701486590085996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H17">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I17">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J17">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8811113333333335</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N17">
-        <v>2.643334</v>
+        <v>1.695534</v>
       </c>
       <c r="O17">
-        <v>0.442673045622721</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P17">
-        <v>0.4426730456227211</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q17">
-        <v>0.3483876030508889</v>
+        <v>0.2088263004713334</v>
       </c>
       <c r="R17">
-        <v>3.135488427458</v>
+        <v>1.879436704242</v>
       </c>
       <c r="S17">
-        <v>0.0006727591155429903</v>
+        <v>0.0003290872462779408</v>
       </c>
       <c r="T17">
-        <v>0.0006727591155429903</v>
+        <v>0.0003290872462779408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H18">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I18">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J18">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.7342500000000002</v>
+        <v>0.203534</v>
       </c>
       <c r="N18">
-        <v>2.20275</v>
+        <v>0.610602</v>
       </c>
       <c r="O18">
-        <v>0.3688894597676453</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P18">
-        <v>0.3688894597676453</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q18">
-        <v>77.15761029350001</v>
+        <v>0.07520330274733333</v>
       </c>
       <c r="R18">
-        <v>694.4184926415001</v>
+        <v>0.676829724726</v>
       </c>
       <c r="S18">
-        <v>0.1489963626830991</v>
+        <v>0.000118512121108632</v>
       </c>
       <c r="T18">
-        <v>0.1489963626830991</v>
+        <v>0.000118512121108632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H19">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I19">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J19">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,43 +1615,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.203534</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N19">
-        <v>0.6106020000000001</v>
+        <v>0.131771</v>
       </c>
       <c r="O19">
-        <v>0.1022561080072835</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P19">
-        <v>0.1022561080072835</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q19">
-        <v>21.38807906500134</v>
+        <v>0.01622925310811111</v>
       </c>
       <c r="R19">
-        <v>192.492711585012</v>
+        <v>0.146063277973</v>
       </c>
       <c r="S19">
-        <v>0.04130177144343464</v>
+        <v>2.557551516471539E-05</v>
       </c>
       <c r="T19">
-        <v>0.04130177144343464</v>
+        <v>2.557551516471539E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1715383333333333</v>
+        <v>1.385719</v>
       </c>
       <c r="N20">
-        <v>0.5146149999999999</v>
+        <v>4.157157</v>
       </c>
       <c r="O20">
-        <v>0.08618138660235011</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P20">
-        <v>0.08618138660235013</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q20">
-        <v>18.02586022979889</v>
+        <v>0.5120060799656666</v>
       </c>
       <c r="R20">
-        <v>162.23274206819</v>
+        <v>4.608054719690999</v>
       </c>
       <c r="S20">
-        <v>0.03480910824295222</v>
+        <v>0.0008068651819869525</v>
       </c>
       <c r="T20">
-        <v>0.03480910824295222</v>
+        <v>0.0008068651819869526</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.8811113333333335</v>
+        <v>0.08178166666666667</v>
       </c>
       <c r="N21">
-        <v>2.643334</v>
+        <v>0.245345</v>
       </c>
       <c r="O21">
-        <v>0.442673045622721</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="P21">
-        <v>0.4426730456227211</v>
+        <v>0.03586700736754191</v>
       </c>
       <c r="Q21">
-        <v>92.59032329931156</v>
+        <v>0.03021731719277778</v>
       </c>
       <c r="R21">
-        <v>833.312909693804</v>
+        <v>0.271955854735</v>
       </c>
       <c r="S21">
-        <v>0.1787979350160331</v>
+        <v>4.761916330669947E-05</v>
       </c>
       <c r="T21">
-        <v>0.1787979350160331</v>
+        <v>4.761916330669948E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H22">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I22">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J22">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7342500000000002</v>
+        <v>0.5651780000000001</v>
       </c>
       <c r="N22">
-        <v>2.20275</v>
+        <v>1.695534</v>
       </c>
       <c r="O22">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="P22">
-        <v>0.3688894597676453</v>
+        <v>0.2478702662370043</v>
       </c>
       <c r="Q22">
-        <v>22.14613179350001</v>
+        <v>72.26740809406667</v>
       </c>
       <c r="R22">
-        <v>199.3151861415</v>
+        <v>650.4066728466</v>
       </c>
       <c r="S22">
-        <v>0.04276562055486591</v>
+        <v>0.113885474538612</v>
       </c>
       <c r="T22">
-        <v>0.04276562055486591</v>
+        <v>0.113885474538612</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H23">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I23">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J23">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,30 +1866,30 @@
         <v>0.203534</v>
       </c>
       <c r="N23">
-        <v>0.6106020000000001</v>
+        <v>0.610602</v>
       </c>
       <c r="O23">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837462</v>
       </c>
       <c r="P23">
-        <v>0.1022561080072835</v>
+        <v>0.08926396067837464</v>
       </c>
       <c r="Q23">
-        <v>6.138904717001334</v>
+        <v>26.02520734886667</v>
       </c>
       <c r="R23">
-        <v>55.25014245301201</v>
+        <v>234.2268661398</v>
       </c>
       <c r="S23">
-        <v>0.01185462419341379</v>
+        <v>0.04101285997463074</v>
       </c>
       <c r="T23">
-        <v>0.01185462419341379</v>
+        <v>0.04101285997463074</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H24">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I24">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J24">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.1715383333333333</v>
+        <v>0.04392366666666667</v>
       </c>
       <c r="N24">
-        <v>0.5146149999999999</v>
+        <v>0.131771</v>
       </c>
       <c r="O24">
-        <v>0.08618138660235011</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="P24">
-        <v>0.08618138660235013</v>
+        <v>0.01926361420786388</v>
       </c>
       <c r="Q24">
-        <v>5.173865219798889</v>
+        <v>5.616371380322222</v>
       </c>
       <c r="R24">
-        <v>46.56478697818999</v>
+        <v>50.5473424229</v>
       </c>
       <c r="S24">
-        <v>0.009991070172213058</v>
+        <v>0.00885078262389751</v>
       </c>
       <c r="T24">
-        <v>0.009991070172213059</v>
+        <v>0.00885078262389751</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,46 +1969,418 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H25">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I25">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J25">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8811113333333335</v>
+        <v>1.385719</v>
       </c>
       <c r="N25">
-        <v>2.643334</v>
+        <v>4.157157</v>
       </c>
       <c r="O25">
-        <v>0.442673045622721</v>
+        <v>0.6077351515092152</v>
       </c>
       <c r="P25">
-        <v>0.4426730456227211</v>
+        <v>0.6077351515092153</v>
       </c>
       <c r="Q25">
-        <v>26.57569998331156</v>
+        <v>177.1872232760333</v>
       </c>
       <c r="R25">
-        <v>239.181299849804</v>
+        <v>1594.6850094843</v>
       </c>
       <c r="S25">
-        <v>0.05131940476394321</v>
+        <v>0.2792275458212649</v>
       </c>
       <c r="T25">
-        <v>0.05131940476394322</v>
+        <v>0.279227545821265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H26">
+        <v>383.5999</v>
+      </c>
+      <c r="I26">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J26">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.08178166666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.245345</v>
+      </c>
+      <c r="O26">
+        <v>0.03586700736754191</v>
+      </c>
+      <c r="P26">
+        <v>0.03586700736754191</v>
+      </c>
+      <c r="Q26">
+        <v>10.45714638505556</v>
+      </c>
+      <c r="R26">
+        <v>94.11431746549999</v>
+      </c>
+      <c r="S26">
+        <v>0.01647931079569962</v>
+      </c>
+      <c r="T26">
+        <v>0.01647931079569962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H27">
+        <v>16.711339</v>
+      </c>
+      <c r="I27">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J27">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5651780000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.695534</v>
+      </c>
+      <c r="O27">
+        <v>0.2478702662370043</v>
+      </c>
+      <c r="P27">
+        <v>0.2478702662370043</v>
+      </c>
+      <c r="Q27">
+        <v>3.148293717780667</v>
+      </c>
+      <c r="R27">
+        <v>28.334643460026</v>
+      </c>
+      <c r="S27">
+        <v>0.004961364098871283</v>
+      </c>
+      <c r="T27">
+        <v>0.004961364098871284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H28">
+        <v>16.711339</v>
+      </c>
+      <c r="I28">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J28">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.203534</v>
+      </c>
+      <c r="N28">
+        <v>0.610602</v>
+      </c>
+      <c r="O28">
+        <v>0.08926396067837462</v>
+      </c>
+      <c r="P28">
+        <v>0.08926396067837464</v>
+      </c>
+      <c r="Q28">
+        <v>1.133775224008667</v>
+      </c>
+      <c r="R28">
+        <v>10.203977016078</v>
+      </c>
+      <c r="S28">
+        <v>0.001786704862007487</v>
+      </c>
+      <c r="T28">
+        <v>0.001786704862007487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H29">
+        <v>16.711339</v>
+      </c>
+      <c r="I29">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J29">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04392366666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.131771</v>
+      </c>
+      <c r="O29">
+        <v>0.01926361420786388</v>
+      </c>
+      <c r="P29">
+        <v>0.01926361420786388</v>
+      </c>
+      <c r="Q29">
+        <v>0.2446744279298889</v>
+      </c>
+      <c r="R29">
+        <v>2.202069851369</v>
+      </c>
+      <c r="S29">
+        <v>0.0003855799463015001</v>
+      </c>
+      <c r="T29">
+        <v>0.0003855799463015001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H30">
+        <v>16.711339</v>
+      </c>
+      <c r="I30">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J30">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.385719</v>
+      </c>
+      <c r="N30">
+        <v>4.157157</v>
+      </c>
+      <c r="O30">
+        <v>0.6077351515092152</v>
+      </c>
+      <c r="P30">
+        <v>0.6077351515092153</v>
+      </c>
+      <c r="Q30">
+        <v>7.719073322580334</v>
+      </c>
+      <c r="R30">
+        <v>69.471659903223</v>
+      </c>
+      <c r="S30">
+        <v>0.01216440926172606</v>
+      </c>
+      <c r="T30">
+        <v>0.01216440926172607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H31">
+        <v>16.711339</v>
+      </c>
+      <c r="I31">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J31">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.08178166666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.245345</v>
+      </c>
+      <c r="O31">
+        <v>0.03586700736754191</v>
+      </c>
+      <c r="P31">
+        <v>0.03586700736754191</v>
+      </c>
+      <c r="Q31">
+        <v>0.4555603852172223</v>
+      </c>
+      <c r="R31">
+        <v>4.100043466955</v>
+      </c>
+      <c r="S31">
+        <v>0.0007179129848399234</v>
+      </c>
+      <c r="T31">
+        <v>0.0007179129848399236</v>
       </c>
     </row>
   </sheetData>
